--- a/python/test2.xlsx
+++ b/python/test2.xlsx
@@ -475,10 +475,10 @@
         <v>0.106</v>
       </c>
       <c r="C1" t="n">
-        <v>0.734</v>
+        <v>0.821</v>
       </c>
       <c r="D1" t="n">
-        <v>0.826</v>
+        <v>0.805</v>
       </c>
       <c r="E1" t="n">
         <v>0.153</v>
@@ -532,25 +532,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.10665</v>
+        <v>0.10571</v>
       </c>
       <c r="B1" t="n">
-        <v>0.49988</v>
+        <v>0.49934</v>
       </c>
       <c r="C1" t="n">
-        <v>0.45656</v>
+        <v>0.45421</v>
       </c>
       <c r="D1" t="n">
-        <v>0.46365</v>
+        <v>0.46127</v>
       </c>
       <c r="E1" t="n">
-        <v>0.15391</v>
+        <v>0.15291</v>
       </c>
       <c r="F1" t="n">
-        <v>0.14943</v>
+        <v>0.14892</v>
       </c>
       <c r="G1" t="n">
-        <v>6e-05</v>
+        <v>6.999999999999999e-05</v>
       </c>
     </row>
   </sheetData>
@@ -595,7 +595,7 @@
         <v>1</v>
       </c>
       <c r="H1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I1" t="n">
         <v>1</v>
@@ -607,7 +607,7 @@
         <v>1</v>
       </c>
       <c r="L1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M1" t="n">
         <v>2</v>
@@ -703,25 +703,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.33357</v>
+        <v>0.34408</v>
       </c>
       <c r="B1" t="n">
-        <v>0.4263</v>
+        <v>0.42873</v>
       </c>
       <c r="C1" t="n">
-        <v>0.37864</v>
+        <v>0.3818</v>
       </c>
       <c r="D1" t="n">
-        <v>0.40947</v>
+        <v>0.4262</v>
       </c>
       <c r="E1" t="n">
-        <v>0.24765</v>
+        <v>0.25249</v>
       </c>
       <c r="F1" t="n">
-        <v>0.80363</v>
+        <v>0.73542</v>
       </c>
       <c r="G1" t="n">
-        <v>0.00513</v>
+        <v>0.00555</v>
       </c>
     </row>
   </sheetData>
